--- a/hashmap_graph.xlsx
+++ b/hashmap_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/s_a_j_boot_students_uu_nl/Documents/1C_scientific_methods/Gijswijt-sequences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{4B65B289-9976-46A0-9E03-3578E5FE0442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF3DC7D-D002-4C5C-8CBE-76FE0DEBA913}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{4B65B289-9976-46A0-9E03-3578E5FE0442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{044D067E-A723-4BC8-9397-CF969C0342F3}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{9A44760B-BE4A-4A12-ACF4-F765981FD7C8}"/>
   </bookViews>
@@ -60,15 +60,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,12 +82,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +137,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Time complexity naive vs hashmap</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -146,12 +194,12 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
@@ -164,105 +212,156 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:name>Trendlijn hashmap</c:name>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1549280614887777E-2"/>
+                  <c:y val="0.12382072032662583"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>320</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1280</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2560</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5120</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20480</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40960</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>373</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1519</c:v>
+                  <c:v>1726</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6160</c:v>
+                  <c:v>10854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26090</c:v>
+                  <c:v>47638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>203672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7672-49DA-AA04-A5A70FBE551A}"/>
+              <c16:uniqueId val="{00000000-70BB-4FF9-A24E-9E67E54AFC93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
@@ -275,62 +374,119 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:name>Trendlijn naive</c:name>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5494313210848645E-4"/>
+                  <c:y val="-3.9206036745406847E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>320</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1280</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2560</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5120</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20480</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40960</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -338,36 +494,30 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>795</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4603</c:v>
+                  <c:v>26306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31046</c:v>
+                  <c:v>219735</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>228947</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1798782</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13705199</c:v>
+                  <c:v>1666879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7672-49DA-AA04-A5A70FBE551A}"/>
+              <c16:uniqueId val="{00000001-70BB-4FF9-A24E-9E67E54AFC93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -379,152 +529,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1285703856"/>
-        <c:axId val="1285692624"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>n</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>640</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1280</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2560</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5120</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>10240</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>20480</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>40960</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>640</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1280</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2560</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5120</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>10240</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>20480</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>40960</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-7672-49DA-AA04-A5A70FBE551A}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1285703856"/>
+        <c:axId val="1810486832"/>
+        <c:axId val="1810484336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1810486832"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -534,8 +564,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -562,15 +592,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285692624"/>
+        <c:crossAx val="1810484336"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1285692624"/>
+        <c:axId val="1810484336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -591,69 +618,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>milliseconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -677,9 +655,9 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285703856"/>
+        <c:crossAx val="1810486832"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -765,10 +743,13 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -802,7 +783,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -829,8 +810,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -910,11 +891,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -925,11 +901,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -941,7 +912,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -961,9 +932,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -976,10 +944,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1019,22 +987,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1139,8 +1108,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1272,19 +1241,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1298,6 +1268,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1322,22 +1303,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>115398</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>420198</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>131378</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74B03E5-B3CE-07CC-1412-8CE3680BD122}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11AD2B0-5C92-D310-632D-B5439C27D540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,9 +1339,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C924631B-C9FE-43C7-9CB7-100A286EF6EB}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{C924631B-C9FE-43C7-9CB7-100A286EF6EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C924631B-C9FE-43C7-9CB7-100A286EF6EB}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10" xr:uid="{C924631B-C9FE-43C7-9CB7-100A286EF6EB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3A0B4787-DB9E-4FA1-A29A-358371E04D47}" name="n"/>
     <tableColumn id="2" xr3:uid="{C1BE21F0-631E-45C3-9B20-E8B3A1BACBF4}" name="hashmap"/>
@@ -1667,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3591A3C4-176D-4733-ADBA-FC52F1890A64}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1663,7 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1689,115 +1674,223 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>405</v>
+      </c>
+      <c r="C5">
         <v>320</v>
       </c>
-      <c r="B4">
-        <v>95</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>640</v>
-      </c>
-      <c r="B5">
-        <v>373</v>
-      </c>
-      <c r="C5">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1280</v>
+        <v>2000</v>
       </c>
       <c r="B6">
-        <v>1519</v>
+        <v>1726</v>
       </c>
       <c r="C6">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2560</v>
+        <v>5000</v>
       </c>
       <c r="B7">
-        <v>6160</v>
+        <v>10854</v>
       </c>
       <c r="C7">
-        <v>4603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5120</v>
+        <v>10000</v>
       </c>
       <c r="B8">
-        <v>26090</v>
+        <v>47638</v>
       </c>
       <c r="C8">
-        <v>31046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10240</v>
+        <v>20000</v>
       </c>
       <c r="B9">
+        <v>203672</v>
+      </c>
+      <c r="C9">
+        <v>1666879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>228947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20480</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1798782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>40960</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>13705199</v>
-      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>200</v>
+      </c>
+      <c r="J17" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>500</v>
+      </c>
+      <c r="J18" s="1">
+        <v>99</v>
+      </c>
+      <c r="K18" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="2">
+        <v>405</v>
+      </c>
+      <c r="K19" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1726</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>10854</v>
+      </c>
+      <c r="K21" s="2">
+        <v>26306</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>16002</v>
+      </c>
+      <c r="K22" s="1">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <v>7000</v>
+      </c>
+      <c r="J23" s="2">
+        <v>21438</v>
+      </c>
+      <c r="K23" s="2">
+        <v>72787</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>29580</v>
+      </c>
+      <c r="K24" s="1">
+        <v>124260</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <v>9000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>37587</v>
+      </c>
+      <c r="K25" s="2">
+        <v>147262</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>47638</v>
+      </c>
+      <c r="K26" s="1">
+        <v>219735</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>203672</v>
+      </c>
+      <c r="K27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hashmap_graph.xlsx
+++ b/hashmap_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/s_a_j_boot_students_uu_nl/Documents/1C_scientific_methods/Gijswijt-sequences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{4B65B289-9976-46A0-9E03-3578E5FE0442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{044D067E-A723-4BC8-9397-CF969C0342F3}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{4B65B289-9976-46A0-9E03-3578E5FE0442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054EE6C0-B44B-4B8D-A5A7-A277D9DEDC4E}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{9A44760B-BE4A-4A12-ACF4-F765981FD7C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hashmap</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>automaton</t>
   </si>
 </sst>
 </file>
@@ -103,8 +106,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,7 +160,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Time complexity naive vs hashmap</a:t>
+              <a:t>Time complexity naive vs hashmap vs automaton</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -220,7 +223,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -236,11 +239,9 @@
           <c:trendline>
             <c:name>Trendlijn hashmap</c:name>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -252,8 +253,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.1549280614887777E-2"/>
-                  <c:y val="0.12382072032662583"/>
+                  <c:x val="0.20114131743297659"/>
+                  <c:y val="1.7721860656794545E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -382,12 +383,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -398,11 +399,9 @@
           <c:trendline>
             <c:name>Trendlijn naive</c:name>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -414,8 +413,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5494313210848645E-4"/>
-                  <c:y val="-3.9206036745406847E-2"/>
+                  <c:x val="0.18945659835191545"/>
+                  <c:y val="-4.1268265212960765E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -518,6 +517,166 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-70BB-4FF9-A24E-9E67E54AFC93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>automaton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Trendlijn automaton</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18945659835191545"/>
+                  <c:y val="-3.2976694996097824E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>911569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D37-4D07-AB6C-96EFB01261FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1310,8 +1469,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>420198</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>131378</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1339,17 +1498,14 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C924631B-C9FE-43C7-9CB7-100A286EF6EB}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{C924631B-C9FE-43C7-9CB7-100A286EF6EB}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C924631B-C9FE-43C7-9CB7-100A286EF6EB}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10" xr:uid="{C924631B-C9FE-43C7-9CB7-100A286EF6EB}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3A0B4787-DB9E-4FA1-A29A-358371E04D47}" name="n"/>
     <tableColumn id="2" xr3:uid="{C1BE21F0-631E-45C3-9B20-E8B3A1BACBF4}" name="hashmap"/>
     <tableColumn id="3" xr3:uid="{F5E20E7B-9209-44D9-B293-9E457DF97768}" name="naive"/>
+    <tableColumn id="4" xr3:uid="{67F1A87D-A25C-4EF8-A47A-4C75F58E1F25}" name="automaton"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1654,13 +1810,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3591A3C4-176D-4733-ADBA-FC52F1890A64}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1673,6 +1830,9 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1684,6 +1844,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1695,6 +1858,9 @@
       <c r="C3">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1706,6 +1872,9 @@
       <c r="C4">
         <v>55</v>
       </c>
+      <c r="D4">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1717,6 +1886,9 @@
       <c r="C5">
         <v>320</v>
       </c>
+      <c r="D5">
+        <v>462</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1728,6 +1900,9 @@
       <c r="C6">
         <v>1999</v>
       </c>
+      <c r="D6">
+        <v>2729</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1739,6 +1914,9 @@
       <c r="C7">
         <v>26306</v>
       </c>
+      <c r="D7">
+        <v>24319</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1750,6 +1928,9 @@
       <c r="C8">
         <v>219735</v>
       </c>
+      <c r="D8">
+        <v>142201</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1760,6 +1941,9 @@
       </c>
       <c r="C9">
         <v>1666879</v>
+      </c>
+      <c r="D9">
+        <v>911569</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
